--- a/biology/Botanique/Euphrasia_officinalis/Euphrasia_officinalis.xlsx
+++ b/biology/Botanique/Euphrasia_officinalis/Euphrasia_officinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphrasia officinalis subsp. rostkoviana
 L'Euphraise de Rostkov (Euphrasia officinalis subsp. rostkoviana anciennement Euphrasia rostkoviana) encore appelée Euphraise officinale ou Casse-lunettes est une plante herbacée annuelle de la famille des Scrofulariacées ou des Orobanchacées selon la classification phylogénétique.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante poilue, ramifiée, semi-parasite, aux feuilles ovales dentées, aux fleurs blanches, à gorge jaune et lèvre supérieure lilas.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs:
 Type d'inflorescence: racème d'épis
@@ -585,7 +601,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les travaux récents permettent de rapprocher les Euphraises des Orobanches au sein de la famille des Orobanchacées
 </t>
@@ -616,9 +634,11 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle doit dès le XIVe siècle son nom de "Casse-lunettes" à ses supposées vertus ophtalmiques (conjonctivite, catarrhe) en lien avec la théorie des signatures : les veines pourpres et la marque jaune rappellent un œil injecté de sang[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle doit dès le XIVe siècle son nom de "Casse-lunettes" à ses supposées vertus ophtalmiques (conjonctivite, catarrhe) en lien avec la théorie des signatures : les veines pourpres et la marque jaune rappellent un œil injecté de sang.
 </t>
         </is>
       </c>
